--- a/table_templates/Менеджмент УП экономика шаблон.xlsx
+++ b/table_templates/Менеджмент УП экономика шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\staffhomes\musinar\Desktop\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7420128-2F37-480E-81AD-B95C09AD6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7571B138-6700-4953-9FC6-AE2EE58E821E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>ЗваниеНаучРук</t>
   </si>
   <si>
-    <t>ДолжностныеИнструкции</t>
-  </si>
-  <si>
     <t>СегодняшняяДата</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>СтепеньНаучРук</t>
+  </si>
+  <si>
+    <t>КафедраНазвание</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -287,6 +287,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,58 +596,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
     <col min="11" max="11" width="26" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="31.5546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" style="4" customWidth="1"/>
     <col min="16" max="16" width="16" style="4" customWidth="1"/>
     <col min="17" max="17" width="17" style="4" customWidth="1"/>
     <col min="18" max="18" width="19" style="4" customWidth="1"/>
     <col min="19" max="19" width="32" style="4" customWidth="1"/>
-    <col min="20" max="20" width="32.88671875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="32.85546875" style="4" customWidth="1"/>
     <col min="21" max="21" width="31" style="4" customWidth="1"/>
-    <col min="22" max="22" width="27.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="32.5546875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="32.5703125" style="4" customWidth="1"/>
     <col min="24" max="24" width="28" style="4" customWidth="1"/>
-    <col min="25" max="25" width="32.6640625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" style="4" customWidth="1"/>
     <col min="26" max="27" width="25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="26.44140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="28.109375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="26.42578125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="28.140625" style="4" customWidth="1"/>
     <col min="30" max="30" width="30" style="4" customWidth="1"/>
     <col min="31" max="31" width="15" style="4" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="4" customWidth="1"/>
-    <col min="33" max="35" width="34.44140625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="4" customWidth="1"/>
+    <col min="33" max="35" width="34.42578125" style="4" customWidth="1"/>
     <col min="36" max="36" width="29" style="4" customWidth="1"/>
-    <col min="37" max="37" width="32.33203125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="31.44140625" style="4" customWidth="1"/>
-    <col min="39" max="39" width="30.5546875" style="4" customWidth="1"/>
+    <col min="37" max="37" width="32.28515625" style="4" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="4" customWidth="1"/>
     <col min="40" max="40" width="18" style="4" customWidth="1"/>
     <col min="41" max="41" width="25" style="4" customWidth="1"/>
-    <col min="42" max="42" width="26.109375" style="4" customWidth="1"/>
-    <col min="43" max="43" width="27.88671875" style="4" customWidth="1"/>
+    <col min="42" max="42" width="26.140625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" style="4" customWidth="1"/>
     <col min="44" max="44" width="26" style="4" customWidth="1"/>
-    <col min="45" max="45" width="24.33203125" style="4" customWidth="1"/>
+    <col min="45" max="45" width="24.28515625" style="4" customWidth="1"/>
     <col min="46" max="46" width="20" style="4" customWidth="1"/>
     <col min="47" max="47" width="15" style="4" customWidth="1"/>
-    <col min="48" max="48" width="9.109375" style="4" customWidth="1"/>
-    <col min="49" max="16384" width="8.88671875" style="4"/>
+    <col min="48" max="48" width="9.140625" style="4" customWidth="1"/>
+    <col min="49" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -667,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -682,103 +685,103 @@
         <v>7</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -792,7 +795,6 @@
       <c r="K2" s="11"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -824,7 +826,7 @@
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -834,7 +836,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -844,7 +846,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -863,7 +865,7 @@
       <c r="AN5" s="10"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -879,7 +881,7 @@
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -895,7 +897,7 @@
       <c r="AN7" s="10"/>
       <c r="AO7" s="10"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -911,7 +913,7 @@
       <c r="AN8" s="10"/>
       <c r="AO8" s="10"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -927,7 +929,7 @@
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -943,7 +945,7 @@
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -953,7 +955,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -963,7 +965,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -973,7 +975,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -983,7 +985,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -993,7 +995,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1003,7 +1005,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -1013,7 +1015,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -1023,7 +1025,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -1033,7 +1035,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -1043,7 +1045,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -1053,7 +1055,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -1063,7 +1065,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -1073,7 +1075,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>

--- a/table_templates/Менеджмент УП экономика шаблон.xlsx
+++ b/table_templates/Менеджмент УП экономика шаблон.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\staffhomes\musinar\Desktop\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7571B138-6700-4953-9FC6-AE2EE58E821E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEF6523-4A75-4628-806C-F0AE7EE8C580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:AR24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/table_templates/Менеджмент УП экономика шаблон.xlsx
+++ b/table_templates/Менеджмент УП экономика шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEF6523-4A75-4628-806C-F0AE7EE8C580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE550D-BF74-4FEE-BF41-F2BE813EC39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ФИО</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ДатаСозданияОрганизации</t>
   </si>
   <si>
-    <t>НомерУставаПрофОрг</t>
-  </si>
-  <si>
     <t>ОГРН</t>
   </si>
   <si>
@@ -157,13 +154,19 @@
   </si>
   <si>
     <t>КафедраНазвание</t>
+  </si>
+  <si>
+    <t>ДатаСозданияУстава</t>
+  </si>
+  <si>
+    <t>ВладелецРП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +193,15 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -252,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -272,7 +284,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -288,9 +299,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -594,60 +609,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR24"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
     <col min="11" max="11" width="26" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="34.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="31.5546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="34.33203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="16" style="4" customWidth="1"/>
     <col min="17" max="17" width="17" style="4" customWidth="1"/>
     <col min="18" max="18" width="19" style="4" customWidth="1"/>
     <col min="19" max="19" width="32" style="4" customWidth="1"/>
-    <col min="20" max="20" width="32.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="32.88671875" style="4" customWidth="1"/>
     <col min="21" max="21" width="31" style="4" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="32.5703125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="28" style="4" customWidth="1"/>
-    <col min="25" max="25" width="32.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="32.5546875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="34.5546875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" style="4" customWidth="1"/>
     <col min="26" max="27" width="25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="26.42578125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="28.140625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="26.44140625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="28.109375" style="4" customWidth="1"/>
     <col min="30" max="30" width="30" style="4" customWidth="1"/>
-    <col min="31" max="31" width="15" style="4" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="4" customWidth="1"/>
-    <col min="33" max="35" width="34.42578125" style="4" customWidth="1"/>
+    <col min="31" max="31" width="30.44140625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="20.44140625" style="4" customWidth="1"/>
+    <col min="33" max="35" width="34.44140625" style="4" customWidth="1"/>
     <col min="36" max="36" width="29" style="4" customWidth="1"/>
-    <col min="37" max="37" width="32.28515625" style="4" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="18" style="4" customWidth="1"/>
+    <col min="37" max="37" width="32.33203125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="31.44140625" style="4" customWidth="1"/>
+    <col min="39" max="39" width="30.5546875" style="4" customWidth="1"/>
+    <col min="40" max="40" width="31" style="4" customWidth="1"/>
     <col min="41" max="41" width="25" style="4" customWidth="1"/>
-    <col min="42" max="42" width="26.140625" style="4" customWidth="1"/>
-    <col min="43" max="43" width="27.85546875" style="4" customWidth="1"/>
+    <col min="42" max="42" width="26.109375" style="4" customWidth="1"/>
+    <col min="43" max="43" width="27.88671875" style="4" customWidth="1"/>
     <col min="44" max="44" width="26" style="4" customWidth="1"/>
-    <col min="45" max="45" width="24.28515625" style="4" customWidth="1"/>
+    <col min="45" max="45" width="24.33203125" style="4" customWidth="1"/>
     <col min="46" max="46" width="20" style="4" customWidth="1"/>
     <col min="47" max="47" width="15" style="4" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="4" customWidth="1"/>
-    <col min="49" max="16384" width="8.85546875" style="4"/>
+    <col min="48" max="48" width="9.109375" style="4" customWidth="1"/>
+    <col min="49" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -670,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -684,14 +699,14 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>43</v>
+      <c r="M1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -712,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>15</v>
@@ -721,112 +736,115 @@
         <v>16</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -836,7 +854,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -846,7 +864,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -858,14 +876,14 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="9"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="8"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -874,14 +892,14 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -890,14 +908,14 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -906,14 +924,14 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -922,14 +940,14 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -938,14 +956,14 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -955,7 +973,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -965,7 +983,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -975,7 +993,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -985,7 +1003,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -995,7 +1013,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1005,7 +1023,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -1015,7 +1033,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -1025,7 +1043,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -1035,7 +1053,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -1045,7 +1063,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -1055,7 +1073,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -1065,7 +1083,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -1075,7 +1093,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="19:26" x14ac:dyDescent="0.3">
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>

--- a/table_templates/Менеджмент УП экономика шаблон.xlsx
+++ b/table_templates/Менеджмент УП экономика шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE550D-BF74-4FEE-BF41-F2BE813EC39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A406C-9D02-4D16-BABE-ED3B8C63FB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ФИО</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>ВладелецРП</t>
+  </si>
+  <si>
+    <t>Фамилия И.О. зав кафедрыРП</t>
   </si>
 </sst>
 </file>
@@ -609,60 +612,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
     <col min="5" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
     <col min="11" max="11" width="26" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="31.5546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="32.85546875" style="4" customWidth="1"/>
     <col min="17" max="17" width="17" style="4" customWidth="1"/>
     <col min="18" max="18" width="19" style="4" customWidth="1"/>
     <col min="19" max="19" width="32" style="4" customWidth="1"/>
-    <col min="20" max="20" width="32.88671875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="32.85546875" style="4" customWidth="1"/>
     <col min="21" max="21" width="31" style="4" customWidth="1"/>
-    <col min="22" max="22" width="27.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="32.5546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="34.5546875" style="4" customWidth="1"/>
-    <col min="25" max="25" width="32.6640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="32.5703125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="34.5703125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" style="4" customWidth="1"/>
     <col min="26" max="27" width="25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="26.44140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="28.109375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="26.42578125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="28.140625" style="4" customWidth="1"/>
     <col min="30" max="30" width="30" style="4" customWidth="1"/>
-    <col min="31" max="31" width="30.44140625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="4" customWidth="1"/>
-    <col min="33" max="35" width="34.44140625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="30.42578125" style="4" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="4" customWidth="1"/>
+    <col min="33" max="35" width="34.42578125" style="4" customWidth="1"/>
     <col min="36" max="36" width="29" style="4" customWidth="1"/>
-    <col min="37" max="37" width="32.33203125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="31.44140625" style="4" customWidth="1"/>
-    <col min="39" max="39" width="30.5546875" style="4" customWidth="1"/>
+    <col min="37" max="37" width="32.28515625" style="4" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="4" customWidth="1"/>
     <col min="40" max="40" width="31" style="4" customWidth="1"/>
     <col min="41" max="41" width="25" style="4" customWidth="1"/>
-    <col min="42" max="42" width="26.109375" style="4" customWidth="1"/>
-    <col min="43" max="43" width="27.88671875" style="4" customWidth="1"/>
+    <col min="42" max="42" width="26.140625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" style="4" customWidth="1"/>
     <col min="44" max="44" width="26" style="4" customWidth="1"/>
-    <col min="45" max="45" width="24.33203125" style="4" customWidth="1"/>
+    <col min="45" max="45" width="24.28515625" style="4" customWidth="1"/>
     <col min="46" max="46" width="20" style="4" customWidth="1"/>
     <col min="47" max="47" width="15" style="4" customWidth="1"/>
-    <col min="48" max="48" width="9.109375" style="4" customWidth="1"/>
-    <col min="49" max="16384" width="8.88671875" style="4"/>
+    <col min="48" max="48" width="9.140625" style="4" customWidth="1"/>
+    <col min="49" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,98 +711,101 @@
       <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -844,7 +850,7 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -854,7 +860,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -864,7 +870,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -883,7 +889,7 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="8"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -899,7 +905,7 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -915,7 +921,7 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -931,7 +937,7 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -947,7 +953,7 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -963,7 +969,7 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -973,7 +979,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -983,7 +989,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -993,7 +999,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1003,7 +1009,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1013,7 +1019,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1023,7 +1029,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -1033,7 +1039,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -1043,7 +1049,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -1053,7 +1059,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -1063,7 +1069,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -1073,7 +1079,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -1083,7 +1089,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -1093,7 +1099,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="19:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
